--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T09:13:58+00:00</t>
+    <t>2022-03-30T09:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:29:59+00:00</t>
+    <t>2022-03-30T09:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:36:20+00:00</t>
+    <t>2022-03-30T09:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:37:53+00:00</t>
+    <t>2022-03-31T12:02:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1182,7 +1182,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/vs-ecog-performance-status-snomed</t>
+    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/ecog-performance-status-snomed</t>
   </si>
   <si>
     <t>Observation.value[x].text</t>
@@ -2033,7 +2033,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.43359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T12:02:56+00:00</t>
+    <t>2022-04-20T16:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:54:19+00:00</t>
+    <t>2022-04-21T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T07:12:34+00:00</t>
+    <t>2022-04-22T12:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:41:11+00:00</t>
+    <t>2022-04-22T12:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:50:48+00:00</t>
+    <t>2022-04-22T14:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T14:55:40+00:00</t>
+    <t>2022-05-04T13:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:51:33+00:00</t>
+    <t>2022-05-23T11:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:41:38+00:00</t>
+    <t>2022-05-23T13:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:12:45+00:00</t>
+    <t>2022-05-24T10:44:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:44:26+00:00</t>
+    <t>2022-07-14T07:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:12:54+00:00</t>
+    <t>2022-07-25T13:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SD_ECOG_Performance_Status</t>
+    <t>ECOG_Performance_Status</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,10 +274,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -299,7 +295,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -698,6 +694,10 @@
   </si>
   <si>
     <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2010,39 +2010,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -2273,19 +2273,19 @@
         <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>82</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2307,28 +2307,28 @@
         <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2378,13 +2378,13 @@
         <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>82</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2424,25 +2424,25 @@
         <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2493,19 +2493,19 @@
         <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2539,28 +2539,28 @@
         <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2610,19 +2610,19 @@
         <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>82</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2656,7 +2656,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>82</v>
@@ -2668,16 +2668,16 @@
         <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2703,43 +2703,43 @@
         <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>82</v>
@@ -2762,18 +2762,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>82</v>
@@ -2785,16 +2785,16 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2844,31 +2844,31 @@
         <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>82</v>
@@ -2879,11 +2879,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2902,16 +2902,16 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2961,7 +2961,7 @@
         <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -2985,7 +2985,7 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>82</v>
@@ -2996,11 +2996,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3019,16 +3019,16 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3078,7 +3078,7 @@
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>80</v>
@@ -3090,7 +3090,7 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>82</v>
@@ -3102,7 +3102,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3113,11 +3113,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3130,25 +3130,25 @@
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>82</v>
@@ -3197,7 +3197,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>80</v>
@@ -3209,7 +3209,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>82</v>
@@ -3221,7 +3221,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3252,20 +3252,20 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>82</v>
@@ -3314,7 +3314,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>80</v>
@@ -3326,22 +3326,22 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
@@ -3349,11 +3349,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3369,20 +3369,20 @@
         <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>82</v>
@@ -3431,7 +3431,7 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>80</v>
@@ -3443,19 +3443,19 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
@@ -3466,11 +3466,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3486,19 +3486,19 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3548,7 +3548,7 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -3560,19 +3560,19 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3591,34 +3591,34 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
@@ -3643,58 +3643,58 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
@@ -3725,19 +3725,19 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
@@ -3762,29 +3762,29 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
@@ -3796,7 +3796,7 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>82</v>
@@ -3808,10 +3808,10 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -3819,17 +3819,17 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>81</v>
@@ -3844,19 +3844,19 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -3866,7 +3866,7 @@
         <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>82</v>
@@ -3881,14 +3881,14 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>82</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>80</v>
@@ -3917,7 +3917,7 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>82</v>
@@ -3929,10 +3929,10 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -3940,42 +3940,42 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>82</v>
@@ -4000,66 +4000,66 @@
         <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4070,7 +4070,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>82</v>
@@ -4082,7 +4082,7 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>219</v>
@@ -4145,7 +4145,7 @@
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>82</v>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4197,16 +4197,16 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4253,7 +4253,7 @@
         <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>227</v>
@@ -4268,7 +4268,7 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>82</v>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>81</v>
@@ -4311,7 +4311,7 @@
         <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>229</v>
@@ -4363,14 +4363,14 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>234</v>
@@ -4385,7 +4385,7 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>82</v>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>81</v>
@@ -4430,7 +4430,7 @@
         <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>229</v>
@@ -4506,7 +4506,7 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>82</v>
@@ -4540,7 +4540,7 @@
         <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>82</v>
@@ -4552,7 +4552,7 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>219</v>
@@ -4615,7 +4615,7 @@
         <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>82</v>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4667,16 +4667,16 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4723,7 +4723,7 @@
         <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>227</v>
@@ -4738,7 +4738,7 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>82</v>
@@ -4769,22 +4769,22 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>242</v>
@@ -4851,13 +4851,13 @@
         <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -4891,19 +4891,19 @@
         <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>250</v>
@@ -4968,13 +4968,13 @@
         <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>82</v>
@@ -5005,22 +5005,22 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>257</v>
@@ -5085,13 +5085,13 @@
         <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>82</v>
@@ -5125,19 +5125,19 @@
         <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>264</v>
@@ -5202,13 +5202,13 @@
         <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>82</v>
@@ -5242,16 +5242,16 @@
         <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>271</v>
@@ -5321,13 +5321,13 @@
         <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>82</v>
@@ -5372,7 +5372,7 @@
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>229</v>
@@ -5448,7 +5448,7 @@
         <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>82</v>
@@ -5482,7 +5482,7 @@
         <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>82</v>
@@ -5494,7 +5494,7 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>219</v>
@@ -5557,7 +5557,7 @@
         <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>82</v>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5609,16 +5609,16 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5665,7 +5665,7 @@
         <v>82</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>227</v>
@@ -5680,7 +5680,7 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>82</v>
@@ -5711,22 +5711,22 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>242</v>
@@ -5793,13 +5793,13 @@
         <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>82</v>
@@ -5833,19 +5833,19 @@
         <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>250</v>
@@ -5910,13 +5910,13 @@
         <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>82</v>
@@ -5947,22 +5947,22 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>257</v>
@@ -6027,13 +6027,13 @@
         <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -6067,19 +6067,19 @@
         <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>264</v>
@@ -6144,13 +6144,13 @@
         <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>82</v>
@@ -6184,16 +6184,16 @@
         <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>271</v>
@@ -6263,13 +6263,13 @@
         <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>82</v>
@@ -6303,19 +6303,19 @@
         <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>282</v>
@@ -6382,13 +6382,13 @@
         <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>82</v>
@@ -6419,19 +6419,19 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>290</v>
@@ -6501,13 +6501,13 @@
         <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>295</v>
@@ -6550,7 +6550,7 @@
         <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>300</v>
@@ -6624,7 +6624,7 @@
         <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>82</v>
@@ -6633,7 +6633,7 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>304</v>
@@ -6658,16 +6658,16 @@
         <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>307</v>
@@ -6737,13 +6737,13 @@
         <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>312</v>
@@ -6777,16 +6777,16 @@
         <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>318</v>
@@ -6856,13 +6856,13 @@
         <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>323</v>
@@ -6896,16 +6896,16 @@
         <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>328</v>
@@ -6973,13 +6973,13 @@
         <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>82</v>
@@ -7022,7 +7022,7 @@
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>336</v>
@@ -7096,7 +7096,7 @@
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>340</v>
@@ -7130,19 +7130,19 @@
         <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>345</v>
@@ -7207,13 +7207,13 @@
         <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>82</v>
@@ -7249,19 +7249,19 @@
         <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>345</v>
@@ -7328,13 +7328,13 @@
         <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>82</v>
@@ -7368,7 +7368,7 @@
         <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>82</v>
@@ -7380,7 +7380,7 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>219</v>
@@ -7443,7 +7443,7 @@
         <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>82</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7495,16 +7495,16 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7551,7 +7551,7 @@
         <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>227</v>
@@ -7566,7 +7566,7 @@
         <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>82</v>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>81</v>
@@ -7609,7 +7609,7 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>229</v>
@@ -7661,14 +7661,14 @@
         <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>234</v>
@@ -7683,7 +7683,7 @@
         <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>82</v>
@@ -7716,19 +7716,19 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>229</v>
@@ -7768,7 +7768,7 @@
         <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
@@ -7802,7 +7802,7 @@
         <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>82</v>
@@ -7836,7 +7836,7 @@
         <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>82</v>
@@ -7848,7 +7848,7 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>219</v>
@@ -7911,7 +7911,7 @@
         <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>82</v>
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7963,16 +7963,16 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8019,7 +8019,7 @@
         <v>82</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>227</v>
@@ -8034,7 +8034,7 @@
         <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>82</v>
@@ -8065,22 +8065,22 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>242</v>
@@ -8147,13 +8147,13 @@
         <v>80</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>82</v>
@@ -8187,19 +8187,19 @@
         <v>80</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>250</v>
@@ -8264,13 +8264,13 @@
         <v>80</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>82</v>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F54" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>257</v>
@@ -8381,13 +8381,13 @@
         <v>80</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>82</v>
@@ -8421,19 +8421,19 @@
         <v>80</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>264</v>
@@ -8498,13 +8498,13 @@
         <v>80</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>82</v>
@@ -8538,16 +8538,16 @@
         <v>80</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>271</v>
@@ -8617,13 +8617,13 @@
         <v>80</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>82</v>
@@ -8659,16 +8659,16 @@
         <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>229</v>
@@ -8708,7 +8708,7 @@
         <v>82</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
@@ -8742,7 +8742,7 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>82</v>
@@ -8776,7 +8776,7 @@
         <v>80</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>82</v>
@@ -8788,7 +8788,7 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>219</v>
@@ -8851,7 +8851,7 @@
         <v>80</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>82</v>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8903,16 +8903,16 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8959,7 +8959,7 @@
         <v>82</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>227</v>
@@ -8974,7 +8974,7 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>82</v>
@@ -9005,22 +9005,22 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>242</v>
@@ -9087,13 +9087,13 @@
         <v>80</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>82</v>
@@ -9127,19 +9127,19 @@
         <v>80</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>250</v>
@@ -9204,13 +9204,13 @@
         <v>80</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>82</v>
@@ -9241,22 +9241,22 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>257</v>
@@ -9321,13 +9321,13 @@
         <v>80</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>82</v>
@@ -9361,19 +9361,19 @@
         <v>80</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>264</v>
@@ -9438,13 +9438,13 @@
         <v>80</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>82</v>
@@ -9478,16 +9478,16 @@
         <v>80</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>271</v>
@@ -9557,13 +9557,13 @@
         <v>80</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>82</v>
@@ -9597,19 +9597,19 @@
         <v>80</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>282</v>
@@ -9676,13 +9676,13 @@
         <v>80</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>82</v>
@@ -9716,7 +9716,7 @@
         <v>80</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>82</v>
@@ -9728,7 +9728,7 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>375</v>
@@ -9795,13 +9795,13 @@
         <v>80</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>382</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>82</v>
@@ -9810,7 +9810,7 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>383</v>
@@ -9847,7 +9847,7 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>386</v>
@@ -9920,7 +9920,7 @@
         <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>82</v>
@@ -10039,7 +10039,7 @@
         <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>82</v>
@@ -10073,7 +10073,7 @@
         <v>80</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>82</v>
@@ -10085,7 +10085,7 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>405</v>
@@ -10120,7 +10120,7 @@
         <v>82</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X69" t="s" s="2">
         <v>408</v>
@@ -10150,13 +10150,13 @@
         <v>80</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>82</v>
@@ -10190,7 +10190,7 @@
         <v>80</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>82</v>
@@ -10202,7 +10202,7 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>415</v>
@@ -10239,7 +10239,7 @@
         <v>82</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X70" t="s" s="2">
         <v>419</v>
@@ -10269,13 +10269,13 @@
         <v>80</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>82</v>
@@ -10309,7 +10309,7 @@
         <v>80</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>82</v>
@@ -10386,13 +10386,13 @@
         <v>80</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>82</v>
@@ -10426,7 +10426,7 @@
         <v>80</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>82</v>
@@ -10503,13 +10503,13 @@
         <v>80</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>82</v>
@@ -10662,7 +10662,7 @@
         <v>80</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>82</v>
@@ -10674,7 +10674,7 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>219</v>
@@ -10737,7 +10737,7 @@
         <v>80</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>82</v>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10789,16 +10789,16 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10860,7 +10860,7 @@
         <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>82</v>
@@ -10900,13 +10900,13 @@
         <v>82</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>454</v>
@@ -10915,10 +10915,10 @@
         <v>455</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>82</v>
@@ -10979,7 +10979,7 @@
         <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>82</v>
@@ -10991,7 +10991,7 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11013,7 +11013,7 @@
         <v>80</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>82</v>
@@ -11088,13 +11088,13 @@
         <v>80</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>82</v>
@@ -11128,7 +11128,7 @@
         <v>80</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>82</v>
@@ -11203,13 +11203,13 @@
         <v>80</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>82</v>
@@ -11243,7 +11243,7 @@
         <v>80</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>82</v>
@@ -11255,7 +11255,7 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>469</v>
@@ -11292,7 +11292,7 @@
         <v>82</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>473</v>
@@ -11322,13 +11322,13 @@
         <v>80</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>82</v>
@@ -11374,7 +11374,7 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>478</v>
@@ -11411,7 +11411,7 @@
         <v>82</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X80" t="s" s="2">
         <v>482</v>
@@ -11447,7 +11447,7 @@
         <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>82</v>
@@ -11481,7 +11481,7 @@
         <v>80</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>82</v>
@@ -11558,13 +11558,13 @@
         <v>80</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>82</v>
@@ -11598,7 +11598,7 @@
         <v>80</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>82</v>
@@ -11610,7 +11610,7 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>491</v>
@@ -11673,13 +11673,13 @@
         <v>80</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>82</v>
@@ -11722,7 +11722,7 @@
         <v>82</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>495</v>
@@ -11796,7 +11796,7 @@
         <v>82</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>82</v>
@@ -11839,7 +11839,7 @@
         <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>502</v>
@@ -11913,7 +11913,7 @@
         <v>82</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>82</v>
@@ -11956,7 +11956,7 @@
         <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>442</v>
@@ -12032,7 +12032,7 @@
         <v>82</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>82</v>
@@ -12066,7 +12066,7 @@
         <v>80</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>82</v>
@@ -12078,7 +12078,7 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>219</v>
@@ -12141,7 +12141,7 @@
         <v>80</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>82</v>
@@ -12174,7 +12174,7 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12193,16 +12193,16 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12264,7 +12264,7 @@
         <v>82</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>82</v>
@@ -12304,13 +12304,13 @@
         <v>82</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>454</v>
@@ -12319,10 +12319,10 @@
         <v>455</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>82</v>
@@ -12383,7 +12383,7 @@
         <v>82</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>82</v>
@@ -12395,7 +12395,7 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12414,22 +12414,22 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F89" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J89" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>518</v>
@@ -12441,7 +12441,7 @@
         <v>520</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>82</v>
@@ -12466,13 +12466,13 @@
         <v>82</v>
       </c>
       <c r="W89" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="X89" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="X89" t="s" s="2">
+      <c r="Y89" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>82</v>
@@ -12493,16 +12493,16 @@
         <v>517</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>82</v>
@@ -12511,13 +12511,13 @@
         <v>521</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="AN89" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -12536,16 +12536,16 @@
         <v>80</v>
       </c>
       <c r="F90" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>523</v>
@@ -12615,13 +12615,13 @@
         <v>80</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>82</v>
@@ -12655,7 +12655,7 @@
         <v>80</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>82</v>
@@ -12667,7 +12667,7 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>528</v>
@@ -12734,13 +12734,13 @@
         <v>80</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>382</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>82</v>
@@ -12749,7 +12749,7 @@
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>383</v>
@@ -12786,7 +12786,7 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>386</v>
@@ -12859,7 +12859,7 @@
         <v>82</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>82</v>
@@ -12978,7 +12978,7 @@
         <v>82</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2120,19 +2124,19 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>41</v>
@@ -2143,10 +2147,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2157,7 +2161,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -2166,19 +2170,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2228,13 +2232,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2263,10 +2267,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2277,7 +2281,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2286,16 +2290,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2346,19 +2350,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2381,10 +2385,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2395,28 +2399,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2466,19 +2470,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2501,10 +2505,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2515,7 +2519,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2527,16 +2531,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2562,13 +2566,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2586,19 +2590,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2621,21 +2625,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2647,16 +2651,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2706,19 +2710,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -2730,7 +2734,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>41</v>
@@ -2741,14 +2745,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2767,16 +2771,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2826,7 +2830,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2850,7 +2854,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>41</v>
@@ -2861,14 +2865,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2887,16 +2891,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2946,7 +2950,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2958,7 +2962,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2970,7 +2974,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>41</v>
@@ -2981,14 +2985,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3001,25 +3005,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -3068,7 +3072,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3080,7 +3084,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -3092,7 +3096,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>41</v>
@@ -3103,10 +3107,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3126,20 +3130,20 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -3188,7 +3192,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3200,22 +3204,22 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>41</v>
@@ -3223,14 +3227,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3246,20 +3250,20 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -3308,7 +3312,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3320,19 +3324,19 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>41</v>
@@ -3343,14 +3347,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3366,19 +3370,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3428,7 +3432,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3440,19 +3444,19 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3463,10 +3467,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3474,34 +3478,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3526,13 +3530,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -3550,34 +3554,34 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3585,10 +3589,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3596,7 +3600,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3611,19 +3615,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3648,29 +3652,29 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3682,7 +3686,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3694,10 +3698,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3705,20 +3709,20 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -3733,19 +3737,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3755,7 +3759,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3770,13 +3774,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3794,7 +3798,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3806,7 +3810,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3818,10 +3822,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -3829,21 +3833,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -3852,22 +3856,22 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3892,13 +3896,13 @@
         <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>41</v>
@@ -3916,45 +3920,45 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3965,7 +3969,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3977,13 +3981,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4034,13 +4038,13 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
@@ -4058,7 +4062,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4069,14 +4073,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4095,16 +4099,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4142,19 +4146,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4166,7 +4170,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -4178,7 +4182,7 @@
         <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4189,10 +4193,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4200,7 +4204,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -4212,22 +4216,22 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -4264,17 +4268,17 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4286,7 +4290,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -4295,10 +4299,10 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4309,20 +4313,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -4334,22 +4338,22 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
@@ -4359,7 +4363,7 @@
         <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>41</v>
@@ -4398,7 +4402,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4410,7 +4414,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -4419,10 +4423,10 @@
         <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4433,10 +4437,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4447,7 +4451,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4459,13 +4463,13 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4516,13 +4520,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -4540,7 +4544,7 @@
         <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4551,14 +4555,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4577,16 +4581,16 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4624,19 +4628,19 @@
         <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4648,7 +4652,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -4660,7 +4664,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4671,10 +4675,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4682,10 +4686,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4694,22 +4698,22 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4758,19 +4762,19 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -4779,10 +4783,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4793,10 +4797,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4807,7 +4811,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4816,19 +4820,19 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4878,19 +4882,19 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -4899,10 +4903,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -4913,10 +4917,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4924,10 +4928,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4936,20 +4940,20 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4998,19 +5002,19 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -5019,10 +5023,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -5033,10 +5037,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5047,7 +5051,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -5056,20 +5060,20 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5118,19 +5122,19 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -5139,10 +5143,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5153,10 +5157,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5167,7 +5171,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -5176,22 +5180,22 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5240,19 +5244,19 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -5261,10 +5265,10 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
@@ -5275,13 +5279,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>41</v>
@@ -5300,22 +5304,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -5325,7 +5329,7 @@
         <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>41</v>
@@ -5364,7 +5368,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5376,7 +5380,7 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -5385,10 +5389,10 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5399,10 +5403,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5413,7 +5417,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -5425,13 +5429,13 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5482,13 +5486,13 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
@@ -5506,7 +5510,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5517,14 +5521,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5543,16 +5547,16 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5590,19 +5594,19 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5614,7 +5618,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5626,7 +5630,7 @@
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5637,10 +5641,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5648,10 +5652,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5660,22 +5664,22 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5724,19 +5728,19 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5745,10 +5749,10 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5759,10 +5763,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5773,7 +5777,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5782,19 +5786,19 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5844,19 +5848,19 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -5865,10 +5869,10 @@
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5879,10 +5883,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5890,10 +5894,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5902,20 +5906,20 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5964,19 +5968,19 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -5985,10 +5989,10 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -5999,10 +6003,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6013,7 +6017,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -6022,20 +6026,20 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -6084,19 +6088,19 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -6105,10 +6109,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6119,10 +6123,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6133,7 +6137,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -6142,22 +6146,22 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -6206,19 +6210,19 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -6227,10 +6231,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6241,10 +6245,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6255,7 +6259,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -6264,22 +6268,22 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6328,19 +6332,19 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -6349,10 +6353,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6363,10 +6367,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6374,10 +6378,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -6386,22 +6390,22 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6450,34 +6454,34 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>41</v>
@@ -6485,10 +6489,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6508,19 +6512,19 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6570,7 +6574,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6582,7 +6586,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -6591,13 +6595,13 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>41</v>
@@ -6605,21 +6609,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6628,22 +6632,22 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6692,34 +6696,34 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>41</v>
@@ -6727,21 +6731,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -6750,22 +6754,22 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6814,34 +6818,34 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>41</v>
@@ -6849,10 +6853,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6863,7 +6867,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6872,19 +6876,19 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6934,19 +6938,19 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -6955,13 +6959,13 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>41</v>
@@ -6969,10 +6973,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6992,20 +6996,20 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7054,7 +7058,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7066,22 +7070,22 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>41</v>
@@ -7089,10 +7093,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7103,7 +7107,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -7112,22 +7116,22 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -7176,45 +7180,45 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7225,7 +7229,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -7237,13 +7241,13 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7294,13 +7298,13 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>41</v>
@@ -7318,7 +7322,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7329,14 +7333,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7355,16 +7359,16 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7402,19 +7406,19 @@
         <v>41</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7426,7 +7430,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -7438,7 +7442,7 @@
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7449,10 +7453,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7460,7 +7464,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -7472,22 +7476,22 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -7524,17 +7528,17 @@
         <v>41</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7546,7 +7550,7 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
@@ -7555,10 +7559,10 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7569,23 +7573,23 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="C47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -7594,22 +7598,22 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7619,7 +7623,7 @@
         <v>41</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>41</v>
@@ -7634,11 +7638,11 @@
         <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>41</v>
@@ -7656,7 +7660,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7668,7 +7672,7 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
@@ -7677,10 +7681,10 @@
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7691,10 +7695,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7705,7 +7709,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7717,13 +7721,13 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7774,13 +7778,13 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
@@ -7798,7 +7802,7 @@
         <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7809,14 +7813,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7835,16 +7839,16 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7882,19 +7886,19 @@
         <v>41</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7906,7 +7910,7 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
@@ -7918,7 +7922,7 @@
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -7929,10 +7933,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7940,10 +7944,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -7952,22 +7956,22 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8016,19 +8020,19 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
@@ -8037,10 +8041,10 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8051,10 +8055,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8065,7 +8069,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -8074,19 +8078,19 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8136,19 +8140,19 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
@@ -8157,10 +8161,10 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
@@ -8171,10 +8175,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8182,10 +8186,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -8194,20 +8198,20 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -8256,19 +8260,19 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
@@ -8277,10 +8281,10 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
@@ -8291,10 +8295,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8305,7 +8309,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -8314,20 +8318,20 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -8376,19 +8380,19 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -8397,10 +8401,10 @@
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8411,10 +8415,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8425,7 +8429,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -8434,22 +8438,22 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8498,19 +8502,19 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
@@ -8519,10 +8523,10 @@
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
@@ -8533,13 +8537,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>41</v>
@@ -8549,7 +8553,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -8558,22 +8562,22 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8583,7 +8587,7 @@
         <v>41</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>41</v>
@@ -8598,11 +8602,11 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8620,7 +8624,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8632,7 +8636,7 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
@@ -8641,10 +8645,10 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8655,10 +8659,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8669,7 +8673,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8681,13 +8685,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8738,13 +8742,13 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>41</v>
@@ -8762,7 +8766,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8773,14 +8777,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8799,16 +8803,16 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8846,19 +8850,19 @@
         <v>41</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8870,7 +8874,7 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
@@ -8882,7 +8886,7 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -8893,10 +8897,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8904,10 +8908,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>41</v>
@@ -8916,22 +8920,22 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8980,19 +8984,19 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
@@ -9001,10 +9005,10 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -9015,10 +9019,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9029,7 +9033,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -9038,19 +9042,19 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9100,19 +9104,19 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>41</v>
@@ -9121,10 +9125,10 @@
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9135,10 +9139,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9146,10 +9150,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -9158,20 +9162,20 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9220,19 +9224,19 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
@@ -9241,10 +9245,10 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9255,10 +9259,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9269,7 +9273,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -9278,20 +9282,20 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9340,19 +9344,19 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
@@ -9361,10 +9365,10 @@
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9375,10 +9379,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9389,7 +9393,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>41</v>
@@ -9398,22 +9402,22 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9462,19 +9466,19 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
@@ -9483,10 +9487,10 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9497,10 +9501,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9511,7 +9515,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -9520,22 +9524,22 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9584,19 +9588,19 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9605,10 +9609,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9619,10 +9623,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9633,7 +9637,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9645,19 +9649,19 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>41</v>
@@ -9682,13 +9686,13 @@
         <v>41</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>41</v>
@@ -9706,19 +9710,19 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>41</v>
@@ -9727,10 +9731,10 @@
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9741,14 +9745,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9767,19 +9771,19 @@
         <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>41</v>
@@ -9804,13 +9808,13 @@
         <v>41</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>41</v>
@@ -9828,7 +9832,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9840,33 +9844,33 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9889,19 +9893,19 @@
         <v>41</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9950,7 +9954,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9962,7 +9966,7 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
@@ -9971,10 +9975,10 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -9985,10 +9989,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9999,7 +10003,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>41</v>
@@ -10011,16 +10015,16 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10046,13 +10050,13 @@
         <v>41</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>41</v>
@@ -10070,45 +10074,45 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10119,7 +10123,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>41</v>
@@ -10131,19 +10135,19 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -10168,13 +10172,13 @@
         <v>41</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>41</v>
@@ -10192,19 +10196,19 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
@@ -10213,10 +10217,10 @@
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10227,10 +10231,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10241,7 +10245,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -10253,16 +10257,16 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10312,45 +10316,45 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10361,7 +10365,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>41</v>
@@ -10373,16 +10377,16 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10432,45 +10436,45 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10493,19 +10497,19 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -10554,7 +10558,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10566,7 +10570,7 @@
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
@@ -10575,10 +10579,10 @@
         <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>41</v>
@@ -10589,10 +10593,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10603,7 +10607,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>41</v>
@@ -10615,13 +10619,13 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10672,13 +10676,13 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>41</v>
@@ -10696,7 +10700,7 @@
         <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10707,14 +10711,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10733,16 +10737,16 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10792,7 +10796,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10804,7 +10808,7 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
@@ -10816,7 +10820,7 @@
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -10827,14 +10831,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10847,25 +10851,25 @@
         <v>41</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
@@ -10914,7 +10918,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10926,7 +10930,7 @@
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>41</v>
@@ -10938,7 +10942,7 @@
         <v>41</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -10949,10 +10953,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10963,7 +10967,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>41</v>
@@ -10975,13 +10979,13 @@
         <v>41</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11032,19 +11036,19 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
@@ -11053,10 +11057,10 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -11067,10 +11071,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11081,7 +11085,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>41</v>
@@ -11093,13 +11097,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11150,19 +11154,19 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>41</v>
@@ -11171,10 +11175,10 @@
         <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
@@ -11185,10 +11189,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11199,7 +11203,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -11211,19 +11215,19 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -11248,13 +11252,13 @@
         <v>41</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>41</v>
@@ -11272,31 +11276,31 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11307,10 +11311,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11333,19 +11337,19 @@
         <v>41</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
@@ -11370,13 +11374,13 @@
         <v>41</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>41</v>
@@ -11394,7 +11398,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11406,19 +11410,19 @@
         <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11429,10 +11433,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11443,7 +11447,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>41</v>
@@ -11455,17 +11459,17 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -11514,19 +11518,19 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>41</v>
@@ -11538,7 +11542,7 @@
         <v>41</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11549,10 +11553,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11563,7 +11567,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>41</v>
@@ -11575,13 +11579,13 @@
         <v>41</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11632,19 +11636,19 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>41</v>
@@ -11653,10 +11657,10 @@
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>41</v>
@@ -11667,10 +11671,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11690,19 +11694,19 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11752,7 +11756,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11764,7 +11768,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11773,10 +11777,10 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>41</v>
@@ -11787,10 +11791,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11810,19 +11814,19 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11872,7 +11876,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11884,7 +11888,7 @@
         <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>41</v>
@@ -11893,10 +11897,10 @@
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>41</v>
@@ -11907,10 +11911,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11930,22 +11934,22 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
@@ -11994,7 +11998,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12006,7 +12010,7 @@
         <v>41</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>41</v>
@@ -12015,10 +12019,10 @@
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>41</v>
@@ -12029,10 +12033,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12043,7 +12047,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
@@ -12055,13 +12059,13 @@
         <v>41</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12112,13 +12116,13 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>41</v>
@@ -12136,7 +12140,7 @@
         <v>41</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>41</v>
@@ -12147,14 +12151,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12173,16 +12177,16 @@
         <v>41</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12232,7 +12236,7 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12244,7 +12248,7 @@
         <v>41</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>41</v>
@@ -12256,7 +12260,7 @@
         <v>41</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>41</v>
@@ -12267,14 +12271,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12287,25 +12291,25 @@
         <v>41</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12354,7 +12358,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12366,7 +12370,7 @@
         <v>41</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>41</v>
@@ -12378,7 +12382,7 @@
         <v>41</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>
@@ -12389,10 +12393,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12400,10 +12404,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>41</v>
@@ -12412,22 +12416,22 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12452,13 +12456,13 @@
         <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>41</v>
@@ -12476,34 +12480,34 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>41</v>
@@ -12511,10 +12515,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12525,7 +12529,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>41</v>
@@ -12534,22 +12538,22 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
@@ -12598,45 +12602,45 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12647,7 +12651,7 @@
         <v>39</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>41</v>
@@ -12659,19 +12663,19 @@
         <v>41</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
@@ -12696,13 +12700,13 @@
         <v>41</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>41</v>
@@ -12720,19 +12724,19 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>41</v>
@@ -12741,10 +12745,10 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>41</v>
@@ -12755,14 +12759,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12781,19 +12785,19 @@
         <v>41</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>41</v>
@@ -12818,13 +12822,13 @@
         <v>41</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>41</v>
@@ -12842,7 +12846,7 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -12854,33 +12858,33 @@
         <v>41</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12906,16 +12910,16 @@
         <v>42</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
@@ -12964,7 +12968,7 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12976,7 +12980,7 @@
         <v>41</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>41</v>
@@ -12985,10 +12989,10 @@
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ecog-performance-status.xlsx
+++ b/StructureDefinition-ecog-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
